--- a/assets/template/template_laporan_laba_rugi.xlsx
+++ b/assets/template/template_laporan_laba_rugi.xlsx
@@ -14,20 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Laporan Laba Rugi</t>
+  </si>
+  <si>
+    <t>Pengeluaran</t>
+  </si>
+  <si>
+    <t>Jumlah Item Dibeli</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Total Pengeluaran</t>
+  </si>
+  <si>
+    <t>Pemasukan</t>
+  </si>
+  <si>
+    <t>Jumlah Item Terjual</t>
+  </si>
+  <si>
+    <t>Total Pemasukan</t>
+  </si>
+  <si>
+    <t>Laba / Rugi</t>
+  </si>
+  <si>
+    <t>Laba Bersih</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="\R\p\ #,##0;\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="\R\P\ #,##0;\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -46,17 +75,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,70 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,50 +214,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,55 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,127 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,30 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,6 +433,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,26 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,168 +510,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -972,30 +1010,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="2.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
@@ -1006,10 +1048,88 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A1:F2"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
